--- a/Table/Table_xls/F服务器经验限制表.xlsx
+++ b/Table/Table_xls/F服务器经验限制表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -34,8 +34,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -52,29 +52,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -89,21 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +172,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -121,75 +188,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,13 +204,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,43 +336,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,121 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,37 +398,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,7 +441,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +463,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -481,16 +481,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -503,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,133 +515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,6 +702,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1027,20 +1032,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -1132,7 +1136,7 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1143,7 +1147,7 @@
         <v>-2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1154,7 +1158,7 @@
         <v>-3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1165,7 +1169,7 @@
         <v>-4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1176,7 +1180,7 @@
         <v>-5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1187,7 +1191,7 @@
         <v>-6</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1198,7 +1202,7 @@
         <v>-7</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1209,7 +1213,7 @@
         <v>-8</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1220,7 +1224,7 @@
         <v>-9</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1231,7 +1235,7 @@
         <v>-10</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1242,7 +1246,7 @@
         <v>-11</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1253,7 +1257,7 @@
         <v>-12</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1264,7 +1268,7 @@
         <v>-13</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1275,7 +1279,7 @@
         <v>-14</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1286,7 +1290,7 @@
         <v>-15</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1305,7 +1309,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1314,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1322,7 +1326,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
